--- a/cloud-analysis/data.xlsx
+++ b/cloud-analysis/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Single-pod-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,8 @@
     <sheet name="Scale-to-zero-2" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Kn-Scale-Bound" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Kn-Target-Bound" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Kn-Stable-Panic-1" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Kn-Stable-Panic-2" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t xml:space="preserve">Iteration</t>
   </si>
@@ -56,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,8 +118,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -137,23 +144,388 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="1" sqref="A1:C1 I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>362</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>361</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>358</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>311</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>317</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -161,10 +533,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>302</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -172,10 +544,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>332</v>
+        <v>602</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>305</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>309</v>
+        <v>627</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>306</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -194,10 +566,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>320</v>
+        <v>648</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>312</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,10 +577,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>332</v>
+        <v>607</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>324</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,10 +588,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>308</v>
+        <v>633</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>321</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -227,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>316</v>
+        <v>592</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>307</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,10 +610,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>326</v>
+        <v>614</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>326</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -249,10 +621,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>303</v>
+        <v>649</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>311</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,16 +632,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>315</v>
+        <v>601</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>330</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -282,139 +654,359 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:C1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>607</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>592</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>642</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>665</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>639</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>620</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>659</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>641</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>644</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>632</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>631</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>676</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>659</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>630</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>630</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>653</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>624</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>666</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>615</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>784</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>813</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>810</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>795</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>797</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>545</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>742</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>699</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>812</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>705</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>760</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>845</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>811</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>355</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>866</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>815</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>767</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -427,139 +1019,359 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:C1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>327</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>313</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>291</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>329</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>310</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>288</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>307</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>321</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>316</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -572,139 +1384,359 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:C1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>651</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>583</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>602</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>609</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>627</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>658</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>648</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>598</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>607</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>594</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>633</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>647</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>592</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>531</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>614</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>646</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>649</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>629</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>601</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>546</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>804</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>862</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>735</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>785</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>699</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>721</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>834</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>791</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>672</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>712</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>741</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>660</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>843</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>711</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>827</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>699</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>861</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>783</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>762</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -717,139 +1749,359 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:C1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>321</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>303</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>358</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>322</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>330</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>334</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>315</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>312</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>359</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>323</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>313</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>314</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>373</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>354</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>334</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>323</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>317.9</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -862,139 +2114,359 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:C1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>487</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>634</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>703</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>615</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>516</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>625</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>637</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>635</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>566</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>585</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>624</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>608</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>688</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>632</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>605</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>594</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>626</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>617</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>696</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>802</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>772</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>730</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>840</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>611</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>679</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>808</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>820</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>853</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>722</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>753</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>775</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>738</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>844</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>723</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>855</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1010,136 +2482,136 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A1:C1 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>316</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>305</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>297</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>311</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>318</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>319</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>301</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>312</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>325</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>322</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>302</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>305</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1154,20 +2626,165 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O35" activeCellId="1" sqref="A1:C1 O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1176,10 +2793,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>651</v>
+        <v>316</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>616</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>602</v>
+        <v>295</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>630</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,10 +2815,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>627</v>
+        <v>318</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>610</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,10 +2826,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>648</v>
+        <v>295</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>628</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>607</v>
+        <v>311</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>579</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,10 +2848,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>633</v>
+        <v>318</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>606</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,10 +2859,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>592</v>
+        <v>301</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>640</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,10 +2870,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>614</v>
+        <v>315</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>587</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,10 +2881,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>649</v>
+        <v>325</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>609</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,16 +2892,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>601</v>
+        <v>302</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>639</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
